--- a/biology/Botanique/Tautonyme/Tautonyme.xlsx
+++ b/biology/Botanique/Tautonyme/Tautonyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tautonyme est un nom scientifique d'espèce dont les deux parties ont la même orthographe (exemple : Rattus rattus), voire un nom de sous-espèce dont les trois parties ont la même orthographe (exemple : Bison bison bison). La première partie du nom est le nom du genre et la deuxième partie est l'épithète spécifique (Code international de nomenclature pour les algues, les champignons et les plantes, CIN) ou le nom spécifique (Code international de nomenclature zoologique, CINZ).
 La tautonymie (l'utilisation de tautonymes) est permise dans la nomenclature zoologique. 
